--- a/06.project/data/rawdata/주유소/사상구_주유소_현황.xlsx
+++ b/06.project/data/rawdata/주유소/사상구_주유소_현황.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BAB2AA9-7AAE-4806-A31E-F1932C36476E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17445" windowHeight="13305" xr2:uid="{C0CFCEEF-D55C-415D-92DF-8579CE16170E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="석유판매업대장 현황" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
-  <si>
-    <t>석유판매업대장 현황</t>
-  </si>
-  <si>
-    <t>영업소소재지(도로명)</t>
-  </si>
-  <si>
-    <t>영업구분</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>상호</t>
   </si>
@@ -108,12 +93,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>부산광역시 사상구 학감대로 170 (학장동)</t>
-  </si>
-  <si>
-    <t>서부산IC주유소</t>
-  </si>
-  <si>
     <t>부산광역시 사상구 백양대로 349 (주례동)</t>
   </si>
   <si>
@@ -144,15 +123,6 @@
     <t>17</t>
   </si>
   <si>
-    <t>부산광역시 사상구 가야대로 395 (주례동)</t>
-  </si>
-  <si>
-    <t>광신석유(주) 가야대로주유소</t>
-  </si>
-  <si>
-    <t>051 3136003</t>
-  </si>
-  <si>
     <t>부산광역시 사상구 모덕로 69 (모라동)</t>
   </si>
   <si>
@@ -249,24 +219,6 @@
     <t>051 7117223</t>
   </si>
   <si>
-    <t>부산광역시 사상구 학장로 273 (학장동)</t>
-  </si>
-  <si>
-    <t>광신석유(주) 학장주유소</t>
-  </si>
-  <si>
-    <t>051 3245050</t>
-  </si>
-  <si>
-    <t>부산광역시 사상구 백양대로 333 (주례동)</t>
-  </si>
-  <si>
-    <t>하늘주유소</t>
-  </si>
-  <si>
-    <t>051 326 2005</t>
-  </si>
-  <si>
     <t>부산광역시 사상구 낙동대로 1316 (삼락동)</t>
   </si>
   <si>
@@ -519,15 +471,9 @@
     <t>30</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -543,12 +489,6 @@
     <t>43</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -556,10 +496,6 @@
   </si>
   <si>
     <t>36</t>
-  </si>
-  <si>
-    <t>휴업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연번</t>
@@ -630,13 +566,17 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,7 +682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -794,7 +734,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -988,786 +928,666 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94DA7A7-2CF7-4155-90A9-584002830495}">
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="44.625" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="1" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
